--- a/scrummetrics/excel/Login.xlsx
+++ b/scrummetrics/excel/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\ScrumMetrics\scrummetrics\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376FC337-BEBE-4B9D-8017-90609722436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E35C1-5110-45D7-B953-4883C8B6A1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50AA2015-A3D3-40F8-85C7-166167C19443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50AA2015-A3D3-40F8-85C7-166167C19443}"/>
   </bookViews>
   <sheets>
     <sheet name="Existing" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>qweruser</t>
+  </si>
+  <si>
+    <t>angel_dlr</t>
+  </si>
+  <si>
+    <t>Pa$$w0rd</t>
+  </si>
+  <si>
+    <t>vero-delg</t>
+  </si>
+  <si>
+    <t>C0ntra$eña</t>
+  </si>
+  <si>
+    <t>jona.reynosa</t>
   </si>
 </sst>
 </file>
@@ -423,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D43E62-999A-4405-A75E-282252FA2453}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +466,30 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -470,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FCACE5-2AE1-4210-B7BE-6C3360625C6F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
